--- a/IceCreamFaves.xlsx
+++ b/IceCreamFaves.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/01-Ins_GitHub/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrielgarcia/Desktop/Data Bootcamp Folder/Module 1_Crowdfunding Analysis/Class_3-Excel-Activities/01-Ins_GitHub/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6003D3-E62E-E34E-A321-E4F2265EBF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5D677D-9D2A-A34C-82AF-6F8B87CC2AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1700" windowWidth="14620" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22280" yWindow="-640" windowWidth="21840" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Vanilla</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Percentage of Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding </t>
   </si>
 </sst>
 </file>
@@ -212,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,7 +514,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -545,6 +548,9 @@
         <f t="shared" ref="C2:C11" si="0">B2/$A$15</f>
         <v>0.16</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
